--- a/public/templates/media.xlsx
+++ b/public/templates/media.xlsx
@@ -27,9 +27,824 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <r>
+      <t>كثفت السلطات الموريتانية تحضيراتها الميدانية للانتخابات الرئاسية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>اختتم باب الترشح</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>منتصف الليلة الماضية وسيقوم المجلس الدستوري بنشر لائحة المرشحين</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>الخميس</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>رفض المجلس الدستوري ترشيح نائب رئيس البرلمان</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>حزب تكتل القوى الديمقراطيةوتراس مولاي ولد محمد الاغطف رئيس الوزراء</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>اجتماعا للجنة الوزارية المكلفة بالمسلسل الانتخابي حضره رئيس اللجنة المستقلة للانتخابات الشيخ سعدبوه وبحث الاجتماع التحضيرات الميدانية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يتعلق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>باللوائح الانتخابية والاجراءات العملية لسير الاقتراع المقرر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>السادس</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يونيوحزيران القادم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>المقرر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>تعقد اللجنة الوزارية اجتماعا اخر الاسبوع القادم لاتخاذ الاجراءات العملية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>المتعلقة بسير الانتخاباتوعلمت الخليج</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>المجلس الدستوري الموريتاني رفض قبول ترشح نائب رئيس البرلمان حامدو</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>حزب تكتل القوى الديمقراطية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يقوده زعيم المعارضة احمد ولد داداه وانه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>قبوله كمرشح مستقل وحصل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>وصل الترشح رقم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>لانتخابات الرئاسةفي الاثناء كشف رئيس مجلس النواب مسعود ولد بلخير ولاول مرة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>الانقلاب العسكري</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>نصح الرئيس المخلوع سيدي ولد الشيخ عبد الله بعدم اقالة قادة الاجهزة الامنية العسكرية والبحث</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>تسوية للخلافات</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>الجانبين</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>حديث لصحيفة الاخبار نشر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>نصحته مرارا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يستمع لمن يريدون الوقيعة بينه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>قادة الجيش لانهم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>داعميه الاساسين وقلت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يتناقش معهم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>بالفعل حريصا عليهم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يريد استفزازهم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>الشيء</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>تجاوز حده</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ضدهعلى صعيد اخر خرج العقيد المتقاعد محمد ولد لكحل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>يوصف بانه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ابرز قادة الموسسة العسكرية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>صمته ازاء مطالبة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>القيادات السياسية بمحاكمة الضالعين</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ملف الارث الانساني المتعلق بالاقلية الافريقية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>البلاد قائلا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>المطالب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>تعدو كونها اثارة للنعرات والاحقاد وتصفية للحسابات واشار</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ماساة الافارقة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>موريتانيا فعل ماض وتحديد المسوولية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>دقيقا</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -42,13 +857,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -515,138 +1336,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,17 +2006,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
